--- a/Algorithm_tester/data_autosave/synth_af_sr.xlsx
+++ b/Algorithm_tester/data_autosave/synth_af_sr.xlsx
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>578.0870914459229</v>
+        <v>259.5200538635254</v>
       </c>
       <c r="I2" t="n">
         <v>-30.40132612584588</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>593.9487814903259</v>
+        <v>264.5559310913086</v>
       </c>
       <c r="I3" t="n">
         <v>-17.00990368325762</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>604.3593287467957</v>
+        <v>272.1883654594421</v>
       </c>
       <c r="I4" t="n">
         <v>-10.79730769522136</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>614.2617464065552</v>
+        <v>281.2479734420776</v>
       </c>
       <c r="I5" t="n">
         <v>-8.811205799682897</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>637.5684142112732</v>
+        <v>297.2401976585388</v>
       </c>
       <c r="I6" t="n">
         <v>-6.761410231047934</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>692.2751784324646</v>
+        <v>339.1833901405334</v>
       </c>
       <c r="I7" t="n">
         <v>-4.685592921636593</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>888.958215713501</v>
+        <v>477.4305820465088</v>
       </c>
       <c r="I8" t="n">
         <v>-2.727180357512142</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>599.9042987823486</v>
+        <v>274.5168209075928</v>
       </c>
       <c r="I9" t="n">
         <v>-36.17507147065015</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>691.3665294647217</v>
+        <v>321.884298324585</v>
       </c>
       <c r="I10" t="n">
         <v>-22.33150088397609</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>732.7295541763306</v>
+        <v>337.6066088676453</v>
       </c>
       <c r="I11" t="n">
         <v>-10.67251947172889</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>762.1045112609863</v>
+        <v>357.1064472198486</v>
       </c>
       <c r="I12" t="n">
         <v>-8.141834670385995</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>814.490020275116</v>
+        <v>377.3589134216309</v>
       </c>
       <c r="I13" t="n">
         <v>-6.626887217316474</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>926.6947269439696</v>
+        <v>716.2124752998352</v>
       </c>
       <c r="I14" t="n">
         <v>-4.961365363494156</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1721.882104873657</v>
+        <v>1034.914493560791</v>
       </c>
       <c r="I15" t="n">
         <v>-3.181320530181872</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>282.6099991798401</v>
+        <v>128.6565899848938</v>
       </c>
       <c r="I17" t="n">
         <v>-17.00990368325762</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>291.2524342536926</v>
+        <v>133.6430311203003</v>
       </c>
       <c r="I18" t="n">
         <v>-10.79730769522136</v>
@@ -1241,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>299.1578578948975</v>
+        <v>137.694239616394</v>
       </c>
       <c r="I19" t="n">
         <v>-8.811205799682897</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>313.3441805839539</v>
+        <v>146.4802026748657</v>
       </c>
       <c r="I20" t="n">
         <v>-6.761410231047934</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>336.8168115615845</v>
+        <v>171.5441823005676</v>
       </c>
       <c r="I21" t="n">
         <v>-4.685592921636593</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>505.6967735290527</v>
+        <v>205.1517963409424</v>
       </c>
       <c r="I22" t="n">
         <v>-2.727180357512142</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>284.3310832977295</v>
+        <v>127.6581287384033</v>
       </c>
       <c r="I23" t="n">
         <v>-36.17507147065015</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>291.2294864654541</v>
+        <v>132.6245665550232</v>
       </c>
       <c r="I24" t="n">
         <v>-22.33150088397609</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>301.1541366577148</v>
+        <v>136.601448059082</v>
       </c>
       <c r="I25" t="n">
         <v>-10.67251947172889</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>312.1508359909058</v>
+        <v>142.7507400512695</v>
       </c>
       <c r="I26" t="n">
         <v>-8.141834670385995</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>337.1883630752563</v>
+        <v>163.2484793663025</v>
       </c>
       <c r="I27" t="n">
         <v>-6.626887217316474</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>388.1243228912352</v>
+        <v>263.0338907241821</v>
       </c>
       <c r="I28" t="n">
         <v>-4.961365363494156</v>
@@ -1645,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>962.0876312255859</v>
+        <v>377.6106834411621</v>
       </c>
       <c r="I29" t="n">
         <v>-3.181320530181872</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>9.498357772827148</v>
+        <v>9.265422821044922</v>
       </c>
       <c r="I30" t="n">
         <v>-30.40132612584588</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>10.28856039047241</v>
+        <v>11.05393171310425</v>
       </c>
       <c r="I31" t="n">
         <v>-17.00990368325762</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>11.95085048675537</v>
+        <v>12.88628578186035</v>
       </c>
       <c r="I32" t="n">
         <v>-10.79730769522136</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>13.6641263961792</v>
+        <v>15.663743019104</v>
       </c>
       <c r="I33" t="n">
         <v>-8.811205799682897</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>16.73442125320435</v>
+        <v>21.25918865203857</v>
       </c>
       <c r="I34" t="n">
         <v>-6.761410231047934</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>23.18181991577147</v>
+        <v>84.58409309387204</v>
       </c>
       <c r="I35" t="n">
         <v>-4.685592921636593</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>121.675968170166</v>
+        <v>212.7366065979004</v>
       </c>
       <c r="I36" t="n">
         <v>-2.727180357512142</v>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>9.495973587036133</v>
+        <v>9.248733520507812</v>
       </c>
       <c r="I37" t="n">
         <v>-36.17507147065015</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>10.49244403839111</v>
+        <v>10.9223484992981</v>
       </c>
       <c r="I38" t="n">
         <v>-22.33150088397609</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>12.41123676300049</v>
+        <v>12.98230886459351</v>
       </c>
       <c r="I39" t="n">
         <v>-10.67251947172889</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>14.91653919219971</v>
+        <v>15.81776142120361</v>
       </c>
       <c r="I40" t="n">
         <v>-8.141834670385995</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>17.62974262237549</v>
+        <v>40.62163829803467</v>
       </c>
       <c r="I41" t="n">
         <v>-6.626887217316474</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>47.87223339080811</v>
+        <v>101.5629649162292</v>
       </c>
       <c r="I42" t="n">
         <v>-4.961365363494156</v>
@@ -2217,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.79059219360352</v>
+        <v>192.5656795501709</v>
       </c>
       <c r="I43" t="n">
         <v>-3.181320530181872</v>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>498.3329772949219</v>
+        <v>167.5534248352051</v>
       </c>
       <c r="I44" t="n">
         <v>-30.40132612584588</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>503.9598941802979</v>
+        <v>171.7666029930115</v>
       </c>
       <c r="I45" t="n">
         <v>-17.00990368325762</v>
@@ -2345,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>514.0260457992554</v>
+        <v>177.3154139518738</v>
       </c>
       <c r="I46" t="n">
         <v>-10.79730769522136</v>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>525.1109600067139</v>
+        <v>182.9695701599121</v>
       </c>
       <c r="I47" t="n">
         <v>-8.811205799682897</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>548.3814477920532</v>
+        <v>196.7127323150635</v>
       </c>
       <c r="I48" t="n">
         <v>-6.761410231047934</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>590.9788966178894</v>
+        <v>258.4454417228695</v>
       </c>
       <c r="I49" t="n">
         <v>-4.685592921636593</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>762.9973888397217</v>
+        <v>331.7782878875732</v>
       </c>
       <c r="I50" t="n">
         <v>-2.727180357512142</v>
@@ -2549,7 +2549,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>491.1041259765625</v>
+        <v>165.5683517456055</v>
       </c>
       <c r="I51" t="n">
         <v>-36.17507147065015</v>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>502.6080369949341</v>
+        <v>168.5844540596008</v>
       </c>
       <c r="I52" t="n">
         <v>-22.33150088397609</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>516.8980360031128</v>
+        <v>172.3486185073853</v>
       </c>
       <c r="I53" t="n">
         <v>-10.67251947172889</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>536.3565683364868</v>
+        <v>179.345965385437</v>
       </c>
       <c r="I54" t="n">
         <v>-8.141834670385995</v>
@@ -2709,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>579.854428768158</v>
+        <v>201.5263438224792</v>
       </c>
       <c r="I55" t="n">
         <v>-6.626887217316474</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>666.1757946014402</v>
+        <v>334.0205430984497</v>
       </c>
       <c r="I56" t="n">
         <v>-4.961365363494156</v>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>1033.027648925781</v>
+        <v>522.9711532592773</v>
       </c>
       <c r="I57" t="n">
         <v>-3.181320530181872</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>20.94197273254395</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>-30.40132612584588</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>22.93848991394043</v>
+        <v>10.97104549407959</v>
       </c>
       <c r="I59" t="n">
         <v>-17.00990368325762</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>23.97173643112183</v>
+        <v>11.96843385696411</v>
       </c>
       <c r="I60" t="n">
         <v>-10.79730769522136</v>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>25.90703964233398</v>
+        <v>12.96496391296387</v>
       </c>
       <c r="I61" t="n">
         <v>-8.811205799682897</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>27.92227268218994</v>
+        <v>13.96274566650391</v>
       </c>
       <c r="I62" t="n">
         <v>-6.761410231047934</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>31.93402290344238</v>
+        <v>18.99859905242918</v>
       </c>
       <c r="I63" t="n">
         <v>-4.685592921636593</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>39.5500659942627</v>
+        <v>31.05258941650391</v>
       </c>
       <c r="I64" t="n">
         <v>-2.727180357512142</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>22.9036808013916</v>
+        <v>10.93816757202148</v>
       </c>
       <c r="I65" t="n">
         <v>-36.17507147065015</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>23.93603324890137</v>
+        <v>11.95304393768311</v>
       </c>
       <c r="I66" t="n">
         <v>-22.33150088397609</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>25.93010663986206</v>
+        <v>12.96341419219971</v>
       </c>
       <c r="I67" t="n">
         <v>-10.67251947172889</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>27.92549133300781</v>
+        <v>13.94903659820557</v>
       </c>
       <c r="I68" t="n">
         <v>-8.141834670385995</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>30.01093864440918</v>
+        <v>15.39063453674316</v>
       </c>
       <c r="I69" t="n">
         <v>-6.626887217316474</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>36.9628071784973</v>
+        <v>32.73005485534667</v>
       </c>
       <c r="I70" t="n">
         <v>-4.961365363494156</v>
@@ -3361,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>76.79438591003418</v>
+        <v>66.10465049743652</v>
       </c>
       <c r="I71" t="n">
         <v>-3.181320530181872</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>16.95194244384766</v>
+        <v>17.55295991897583</v>
       </c>
       <c r="I73" t="n">
         <v>-17.00990368325762</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>18.6571478843689</v>
+        <v>18.5808539390564</v>
       </c>
       <c r="I74" t="n">
         <v>-10.79730769522136</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>19.54352855682373</v>
+        <v>19.36864852905273</v>
       </c>
       <c r="I75" t="n">
         <v>-8.811205799682897</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>20.38222551345825</v>
+        <v>20.48218250274658</v>
       </c>
       <c r="I76" t="n">
         <v>-6.761410231047934</v>
@@ -3609,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>24.30897951126098</v>
+        <v>25.3294229507446</v>
       </c>
       <c r="I77" t="n">
         <v>-4.685592921636593</v>
@@ -3649,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>48.87127876281738</v>
+        <v>121.0708618164062</v>
       </c>
       <c r="I78" t="n">
         <v>-2.727180357512142</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>17.83785820007324</v>
+        <v>17.29022264480591</v>
       </c>
       <c r="I80" t="n">
         <v>-22.33150088397609</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>18.93144845962524</v>
+        <v>18.86516809463501</v>
       </c>
       <c r="I81" t="n">
         <v>-10.67251947172889</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>19.96695995330811</v>
+        <v>19.91152763366699</v>
       </c>
       <c r="I82" t="n">
         <v>-8.141834670385995</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>20.98137140274048</v>
+        <v>21.74288034439087</v>
       </c>
       <c r="I83" t="n">
         <v>-6.626887217316474</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>23.97321462631225</v>
+        <v>26.93102359771729</v>
       </c>
       <c r="I84" t="n">
         <v>-4.961365363494156</v>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>38.89703750610352</v>
+        <v>2467.065095901489</v>
       </c>
       <c r="I85" t="n">
         <v>-3.181320530181872</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>2.989053726196289</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>-30.40132612584588</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>3.984200954437256</v>
+        <v>2.989041805267334</v>
       </c>
       <c r="I87" t="n">
         <v>-17.00990368325762</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>3.989696502685547</v>
+        <v>2.995133399963379</v>
       </c>
       <c r="I88" t="n">
         <v>-10.79730769522136</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>4.951953887939453</v>
+        <v>3.989696502685547</v>
       </c>
       <c r="I89" t="n">
         <v>-8.811205799682897</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>5.006074905395508</v>
+        <v>4.959344863891602</v>
       </c>
       <c r="I90" t="n">
         <v>-6.761410231047934</v>
@@ -4181,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>6.985926628112793</v>
+        <v>8.855485916137695</v>
       </c>
       <c r="I91" t="n">
         <v>-4.685592921636593</v>
@@ -4221,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>12.49980926513672</v>
+        <v>38.86270523071289</v>
       </c>
       <c r="I92" t="n">
         <v>-2.727180357512142</v>
@@ -4265,7 +4265,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>2.988338470458984</v>
+        <v>2.956867218017578</v>
       </c>
       <c r="I93" t="n">
         <v>-36.17507147065015</v>
@@ -4305,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>3.95125150680542</v>
+        <v>2.988576889038086</v>
       </c>
       <c r="I94" t="n">
         <v>-22.33150088397609</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>3.989696502685547</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="I95" t="n">
         <v>-10.67251947172889</v>
@@ -4385,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>4.981040954589844</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I96" t="n">
         <v>-8.141834670385995</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>5.958855152130127</v>
+        <v>4.387140274047852</v>
       </c>
       <c r="I97" t="n">
         <v>-6.626887217316474</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>7.230591773986803</v>
+        <v>6.450664997100825</v>
       </c>
       <c r="I98" t="n">
         <v>-4.961365363494156</v>
@@ -4505,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>11.96956634521484</v>
+        <v>12.96544075012207</v>
       </c>
       <c r="I99" t="n">
         <v>-3.181320530181872</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>4.98199462890625</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>-30.40132612584588</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>5.981922149658203</v>
+        <v>4.98579740524292</v>
       </c>
       <c r="I101" t="n">
         <v>-17.00990368325762</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>6.980359554290771</v>
+        <v>5.982577800750732</v>
       </c>
       <c r="I102" t="n">
         <v>-10.79730769522136</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>7.977008819580078</v>
+        <v>6.905317306518555</v>
       </c>
       <c r="I103" t="n">
         <v>-8.811205799682897</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>8.975982666015625</v>
+        <v>7.017433643341064</v>
       </c>
       <c r="I104" t="n">
         <v>-6.761410231047934</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>10.97061634063721</v>
+        <v>11.69289350509643</v>
       </c>
       <c r="I105" t="n">
         <v>-4.685592921636593</v>
@@ -4793,7 +4793,7 @@
         <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>15.9604549407959</v>
+        <v>25.92921257019043</v>
       </c>
       <c r="I106" t="n">
         <v>-2.727180357512142</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="H107" t="n">
-        <v>4.985809326171875</v>
+        <v>4.530191421508789</v>
       </c>
       <c r="I107" t="n">
         <v>-36.17507147065015</v>
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>5.898547172546388</v>
+        <v>4.985570907592773</v>
       </c>
       <c r="I108" t="n">
         <v>-22.33150088397609</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>6.01118803024292</v>
+        <v>5.978405475616455</v>
       </c>
       <c r="I109" t="n">
         <v>-10.67251947172889</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="H110" t="n">
-        <v>7.959961891174316</v>
+        <v>6.698489189147949</v>
       </c>
       <c r="I110" t="n">
         <v>-8.141834670385995</v>
@@ -4997,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>8.975744247436523</v>
+        <v>7.945895195007324</v>
       </c>
       <c r="I111" t="n">
         <v>-6.626887217316474</v>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
       <c r="H112" t="n">
-        <v>12.81623840332031</v>
+        <v>13.00840377807617</v>
       </c>
       <c r="I112" t="n">
         <v>-4.961365363494156</v>
@@ -5077,7 +5077,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>18.51844787597656</v>
+        <v>23.8797664642334</v>
       </c>
       <c r="I113" t="n">
         <v>-3.181320530181872</v>
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H114" t="n">
-        <v>78.78518104553223</v>
+        <v>23.21624755859375</v>
       </c>
       <c r="I114" t="n">
         <v>-30.40132612584588</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>83.77526998519897</v>
+        <v>35.20554304122925</v>
       </c>
       <c r="I115" t="n">
         <v>-17.00990368325762</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="n">
-        <v>86.76838874816895</v>
+        <v>35.90941429138184</v>
       </c>
       <c r="I116" t="n">
         <v>-10.79730769522136</v>
@@ -5245,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="n">
-        <v>89.72322940826416</v>
+        <v>37.24265098571777</v>
       </c>
       <c r="I117" t="n">
         <v>-8.811205799682897</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>94.32828426361084</v>
+        <v>39.44301605224609</v>
       </c>
       <c r="I118" t="n">
         <v>-6.761410231047934</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>105.5573463439941</v>
+        <v>53.92860174179074</v>
       </c>
       <c r="I119" t="n">
         <v>-4.685592921636593</v>
@@ -5365,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>130.6521892547607</v>
+        <v>138.176441192627</v>
       </c>
       <c r="I120" t="n">
         <v>-2.727180357512142</v>
@@ -5409,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>83.56809616088867</v>
+        <v>33.75887870788574</v>
       </c>
       <c r="I121" t="n">
         <v>-36.17507147065015</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="H122" t="n">
-        <v>86.53656244277954</v>
+        <v>35.45587062835693</v>
       </c>
       <c r="I122" t="n">
         <v>-22.33150088397609</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="H123" t="n">
-        <v>89.79851007461548</v>
+        <v>36.89777851104736</v>
       </c>
       <c r="I123" t="n">
         <v>-10.67251947172889</v>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="H124" t="n">
-        <v>93.76645088195801</v>
+        <v>37.92357444763184</v>
       </c>
       <c r="I124" t="n">
         <v>-8.141834670385995</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="H125" t="n">
-        <v>100.9950637817383</v>
+        <v>43.89822483062744</v>
       </c>
       <c r="I125" t="n">
         <v>-6.626887217316474</v>
@@ -5609,7 +5609,7 @@
         <v>0</v>
       </c>
       <c r="H126" t="n">
-        <v>129.7235131263733</v>
+        <v>85.97204685211182</v>
       </c>
       <c r="I126" t="n">
         <v>-4.961365363494156</v>
@@ -5649,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>270.2767848968506</v>
+        <v>121.4332580566406</v>
       </c>
       <c r="I127" t="n">
         <v>-3.181320530181872</v>
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>4.984140396118164</v>
+        <v>2.986907958984375</v>
       </c>
       <c r="I128" t="n">
         <v>-30.40132612584588</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>5.961060523986816</v>
+        <v>3.980469703674316</v>
       </c>
       <c r="I129" t="n">
         <v>-17.00990368325762</v>
@@ -5777,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>5.988419055938721</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I130" t="n">
         <v>-10.79730769522136</v>
@@ -5817,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>6.990313529968262</v>
+        <v>4.986047744750977</v>
       </c>
       <c r="I131" t="n">
         <v>-8.811205799682897</v>
@@ -5857,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="n">
-        <v>8.247673511505127</v>
+        <v>5.771994590759277</v>
       </c>
       <c r="I132" t="n">
         <v>-6.761410231047934</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>9.990835189819336</v>
+        <v>7.523369789123527</v>
       </c>
       <c r="I133" t="n">
         <v>-4.685592921636593</v>
@@ -5937,7 +5937,7 @@
         <v>0</v>
       </c>
       <c r="H134" t="n">
-        <v>16.14809036254883</v>
+        <v>15.06590843200684</v>
       </c>
       <c r="I134" t="n">
         <v>-2.727180357512142</v>
@@ -5981,7 +5981,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>4.983663558959961</v>
+        <v>2.983808517456055</v>
       </c>
       <c r="I135" t="n">
         <v>-36.17507147065015</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="H136" t="n">
-        <v>5.983340740203857</v>
+        <v>3.971588611602783</v>
       </c>
       <c r="I136" t="n">
         <v>-22.33150088397609</v>
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="H137" t="n">
-        <v>6.978690624237061</v>
+        <v>3.989458084106445</v>
       </c>
       <c r="I137" t="n">
         <v>-10.67251947172889</v>
@@ -6101,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="n">
-        <v>7.977843284606934</v>
+        <v>4.984736442565918</v>
       </c>
       <c r="I138" t="n">
         <v>-8.141834670385995</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>8.976221084594727</v>
+        <v>5.984604358673096</v>
       </c>
       <c r="I139" t="n">
         <v>-6.626887217316474</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>11.0073685646057</v>
+        <v>9.967136383056641</v>
       </c>
       <c r="I140" t="n">
         <v>-4.961365363494156</v>
@@ -6221,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>18.95022392272949</v>
+        <v>13.45682144165039</v>
       </c>
       <c r="I141" t="n">
         <v>-3.181320530181872</v>
@@ -6269,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="H142" t="n">
-        <v>2.87175178527832</v>
+        <v>1.980304718017578</v>
       </c>
       <c r="I142" t="n">
         <v>-30.40132612584588</v>
@@ -6309,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="H143" t="n">
-        <v>2.990949153900146</v>
+        <v>1.99124813079834</v>
       </c>
       <c r="I143" t="n">
         <v>-17.00990368325762</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>3.74293327331543</v>
+        <v>2.016544342041016</v>
       </c>
       <c r="I144" t="n">
         <v>-10.79730769522136</v>
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="H145" t="n">
-        <v>3.98862361907959</v>
+        <v>2.992510795593262</v>
       </c>
       <c r="I145" t="n">
         <v>-8.811205799682897</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="H146" t="n">
-        <v>4.578590393066406</v>
+        <v>3.028213977813721</v>
       </c>
       <c r="I146" t="n">
         <v>-6.761410231047934</v>
@@ -6469,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>5.982422828674316</v>
+        <v>4.374980926513671</v>
       </c>
       <c r="I147" t="n">
         <v>-4.685592921636593</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>24.07217025756836</v>
+        <v>15.04158973693848</v>
       </c>
       <c r="I148" t="n">
         <v>-2.727180357512142</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="H149" t="n">
-        <v>2.958059310913086</v>
+        <v>1.96075439453125</v>
       </c>
       <c r="I149" t="n">
         <v>-36.17507147065015</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>2.991676330566406</v>
+        <v>1.991498470306396</v>
       </c>
       <c r="I150" t="n">
         <v>-22.33150088397609</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>3.984272480010986</v>
+        <v>2.736449241638184</v>
       </c>
       <c r="I151" t="n">
         <v>-10.67251947172889</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="H152" t="n">
-        <v>3.99017333984375</v>
+        <v>2.992630004882812</v>
       </c>
       <c r="I152" t="n">
         <v>-8.141834670385995</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>4.987895488739014</v>
+        <v>3.962993621826172</v>
       </c>
       <c r="I153" t="n">
         <v>-6.626887217316474</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="n">
-        <v>6.112945079803451</v>
+        <v>5.185067653656003</v>
       </c>
       <c r="I154" t="n">
         <v>-4.961365363494156</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>10.97345352172852</v>
+        <v>7.977962493896484</v>
       </c>
       <c r="I155" t="n">
         <v>-3.181320530181872</v>
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="H158" t="n">
-        <v>22.93860912322998</v>
+        <v>22.59218692779541</v>
       </c>
       <c r="I158" t="n">
         <v>-10.79730769522136</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="H159" t="n">
-        <v>24.941086769104</v>
+        <v>24.93190765380859</v>
       </c>
       <c r="I159" t="n">
         <v>-8.811205799682897</v>
@@ -7001,7 +7001,7 @@
         <v>0</v>
       </c>
       <c r="H160" t="n">
-        <v>28.03486585617065</v>
+        <v>26.9438624382019</v>
       </c>
       <c r="I160" t="n">
         <v>-6.761410231047934</v>
@@ -7041,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>34.90573167800903</v>
+        <v>31.92410469055175</v>
       </c>
       <c r="I161" t="n">
         <v>-4.685592921636593</v>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="n">
-        <v>43.40887069702148</v>
+        <v>38.42496871948242</v>
       </c>
       <c r="I162" t="n">
         <v>-2.727180357512142</v>
@@ -7205,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>21.38215303421021</v>
+        <v>21.41177654266357</v>
       </c>
       <c r="I165" t="n">
         <v>-10.67251947172889</v>
@@ -7245,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="H166" t="n">
-        <v>24.31380748748779</v>
+        <v>25.21955966949463</v>
       </c>
       <c r="I166" t="n">
         <v>-8.141834670385995</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="H167" t="n">
-        <v>28.35118770599365</v>
+        <v>30.01385927200317</v>
       </c>
       <c r="I167" t="n">
         <v>-6.626887217316474</v>
@@ -7325,7 +7325,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>35.91305017471313</v>
+        <v>39.2873167991638</v>
       </c>
       <c r="I168" t="n">
         <v>-4.961365363494156</v>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>1341.723680496216</v>
+        <v>4757.980346679688</v>
       </c>
       <c r="I169" t="n">
         <v>-3.181320530181872</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="H170" t="n">
-        <v>20.02954483032227</v>
+        <v>13.36288452148438</v>
       </c>
       <c r="I170" t="n">
         <v>-30.40132612584588</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="H171" t="n">
-        <v>20.98674774169922</v>
+        <v>21.7837929725647</v>
       </c>
       <c r="I171" t="n">
         <v>-17.00990368325762</v>
@@ -7493,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="H172" t="n">
-        <v>22.94015884399414</v>
+        <v>23.476243019104</v>
       </c>
       <c r="I172" t="n">
         <v>-10.79730769522136</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="H173" t="n">
-        <v>23.9403247833252</v>
+        <v>24.70290660858154</v>
       </c>
       <c r="I173" t="n">
         <v>-8.811205799682897</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>25.63297748565674</v>
+        <v>25.93690156936646</v>
       </c>
       <c r="I174" t="n">
         <v>-6.761410231047934</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>28.28590869903564</v>
+        <v>31.39883279800414</v>
       </c>
       <c r="I175" t="n">
         <v>-4.685592921636593</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="H176" t="n">
-        <v>32.00554847717285</v>
+        <v>20832.29231834412</v>
       </c>
       <c r="I176" t="n">
         <v>-2.727180357512142</v>
@@ -7697,7 +7697,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="n">
-        <v>20.10250091552734</v>
+        <v>15.95497131347656</v>
       </c>
       <c r="I177" t="n">
         <v>-36.17507147065015</v>
@@ -7737,7 +7737,7 @@
         <v>0</v>
       </c>
       <c r="H178" t="n">
-        <v>21.48977518081665</v>
+        <v>21.87323570251465</v>
       </c>
       <c r="I178" t="n">
         <v>-22.33150088397609</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="H179" t="n">
-        <v>22.93860912322998</v>
+        <v>23.15336465835571</v>
       </c>
       <c r="I179" t="n">
         <v>-10.67251947172889</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="H180" t="n">
-        <v>24.62387084960938</v>
+        <v>24.47128295898438</v>
       </c>
       <c r="I180" t="n">
         <v>-8.141834670385995</v>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
       <c r="H181" t="n">
-        <v>25.93451738357544</v>
+        <v>25.94465017318726</v>
       </c>
       <c r="I181" t="n">
         <v>-6.626887217316474</v>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>29.5153260231018</v>
+        <v>30.95662593841553</v>
       </c>
       <c r="I182" t="n">
         <v>-4.961365363494156</v>
@@ -7937,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="H183" t="n">
-        <v>1269.787788391113</v>
+        <v>2777.089834213257</v>
       </c>
       <c r="I183" t="n">
         <v>-3.181320530181872</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>15.9614086151123</v>
+        <v>8.974552154541016</v>
       </c>
       <c r="I184" t="n">
         <v>-30.40132612584588</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="H185" t="n">
-        <v>17.93961524963379</v>
+        <v>9.922099113464355</v>
       </c>
       <c r="I185" t="n">
         <v>-17.00990368325762</v>
@@ -8065,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="H186" t="n">
-        <v>18.91487836837769</v>
+        <v>10.00803709030151</v>
       </c>
       <c r="I186" t="n">
         <v>-10.79730769522136</v>
@@ -8105,7 +8105,7 @@
         <v>0</v>
       </c>
       <c r="H187" t="n">
-        <v>18.98312568664551</v>
+        <v>10.97011566162109</v>
       </c>
       <c r="I187" t="n">
         <v>-8.811205799682897</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="H188" t="n">
-        <v>20.93905210494995</v>
+        <v>11.97034120559692</v>
       </c>
       <c r="I188" t="n">
         <v>-6.761410231047934</v>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="H189" t="n">
-        <v>23.00889492034911</v>
+        <v>15.31780958175658</v>
       </c>
       <c r="I189" t="n">
         <v>-4.685592921636593</v>
@@ -8225,7 +8225,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="n">
-        <v>37.89830207824707</v>
+        <v>39.7334098815918</v>
       </c>
       <c r="I190" t="n">
         <v>-2.727180357512142</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="H191" t="n">
-        <v>15.95735549926758</v>
+        <v>8.970499038696289</v>
       </c>
       <c r="I191" t="n">
         <v>-36.17507147065015</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="H192" t="n">
-        <v>17.91543960571289</v>
+        <v>9.916031360626221</v>
       </c>
       <c r="I192" t="n">
         <v>-22.33150088397609</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="H193" t="n">
-        <v>18.94879341125488</v>
+        <v>9.978592395782471</v>
       </c>
       <c r="I193" t="n">
         <v>-10.67251947172889</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H194" t="n">
-        <v>19.9815034866333</v>
+        <v>10.97500324249268</v>
       </c>
       <c r="I194" t="n">
         <v>-8.141834670385995</v>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="H195" t="n">
-        <v>21.94058895111084</v>
+        <v>12.96430826187134</v>
       </c>
       <c r="I195" t="n">
         <v>-6.626887217316474</v>
@@ -8469,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>27.0468473434448</v>
+        <v>20.21255493164061</v>
       </c>
       <c r="I196" t="n">
         <v>-4.961365363494156</v>
@@ -8509,7 +8509,7 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>61.66219711303711</v>
+        <v>42.71483421325684</v>
       </c>
       <c r="I197" t="n">
         <v>-3.181320530181872</v>
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="H198" t="n">
-        <v>48.63238334655762</v>
+        <v>47.36685752868652</v>
       </c>
       <c r="I198" t="n">
         <v>-30.40132612584588</v>
@@ -8597,7 +8597,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="n">
-        <v>50.29816627502441</v>
+        <v>49.85952377319336</v>
       </c>
       <c r="I199" t="n">
         <v>-17.00990368325762</v>
@@ -8637,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="H200" t="n">
-        <v>52.8225302696228</v>
+        <v>51.36680603027344</v>
       </c>
       <c r="I200" t="n">
         <v>-10.79730769522136</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="H201" t="n">
-        <v>54.94391918182373</v>
+        <v>53.17211151123047</v>
       </c>
       <c r="I201" t="n">
         <v>-8.811205799682897</v>
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="H202" t="n">
-        <v>59.16136503219604</v>
+        <v>56.39839172363281</v>
       </c>
       <c r="I202" t="n">
         <v>-6.761410231047934</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="H203" t="n">
-        <v>73.81211519241333</v>
+        <v>70.90994119644162</v>
       </c>
       <c r="I203" t="n">
         <v>-4.685592921636593</v>
@@ -8797,7 +8797,7 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>169.5475578308105</v>
+        <v>105.1771640777588</v>
       </c>
       <c r="I204" t="n">
         <v>-2.727180357512142</v>
@@ -8841,7 +8841,7 @@
         <v>0</v>
       </c>
       <c r="H205" t="n">
-        <v>47.60527610778809</v>
+        <v>44.02017593383789</v>
       </c>
       <c r="I205" t="n">
         <v>-36.17507147065015</v>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="H206" t="n">
-        <v>48.81173372268677</v>
+        <v>47.15495109558105</v>
       </c>
       <c r="I206" t="n">
         <v>-22.33150088397609</v>
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="H207" t="n">
-        <v>51.02956295013428</v>
+        <v>49.31402206420898</v>
       </c>
       <c r="I207" t="n">
         <v>-10.67251947172889</v>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="H208" t="n">
-        <v>52.73866653442383</v>
+        <v>51.48601531982422</v>
       </c>
       <c r="I208" t="n">
         <v>-8.141834670385995</v>
@@ -9001,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="n">
-        <v>54.85481023788452</v>
+        <v>56.35464191436768</v>
       </c>
       <c r="I209" t="n">
         <v>-6.626887217316474</v>
@@ -9041,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="H210" t="n">
-        <v>70.86186408996581</v>
+        <v>71.79894447326657</v>
       </c>
       <c r="I210" t="n">
         <v>-4.961365363494156</v>
@@ -9081,7 +9081,7 @@
         <v>0</v>
       </c>
       <c r="H211" t="n">
-        <v>94.74635124206543</v>
+        <v>141.2162780761719</v>
       </c>
       <c r="I211" t="n">
         <v>-3.181320530181872</v>
@@ -9129,7 +9129,7 @@
         <v>0</v>
       </c>
       <c r="H212" t="n">
-        <v>585.721492767334</v>
+        <v>338.9229774475098</v>
       </c>
       <c r="I212" t="n">
         <v>-30.40132612584588</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="H213" t="n">
-        <v>605.3751707077026</v>
+        <v>344.5569157600403</v>
       </c>
       <c r="I213" t="n">
         <v>-17.00990368325762</v>
@@ -9209,7 +9209,7 @@
         <v>0</v>
       </c>
       <c r="H214" t="n">
-        <v>620.3198432922363</v>
+        <v>357.0386171340942</v>
       </c>
       <c r="I214" t="n">
         <v>-10.79730769522136</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="H215" t="n">
-        <v>636.981725692749</v>
+        <v>372.8584051132202</v>
       </c>
       <c r="I215" t="n">
         <v>-8.811205799682897</v>
@@ -9289,7 +9289,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="n">
-        <v>660.0937843322754</v>
+        <v>400.9647965431213</v>
       </c>
       <c r="I216" t="n">
         <v>-6.761410231047934</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="H217" t="n">
-        <v>714.0325784683226</v>
+        <v>482.0055007934569</v>
       </c>
       <c r="I217" t="n">
         <v>-4.685592921636593</v>
@@ -9369,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>795.346736907959</v>
+        <v>597.6977348327637</v>
       </c>
       <c r="I218" t="n">
         <v>-2.727180357512142</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>595.5324172973633</v>
+        <v>342.0760631561279</v>
       </c>
       <c r="I219" t="n">
         <v>-36.17507147065015</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="H220" t="n">
-        <v>608.6176872253418</v>
+        <v>344.3213820457458</v>
       </c>
       <c r="I220" t="n">
         <v>-22.33150088397609</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="H221" t="n">
-        <v>623.1385469436646</v>
+        <v>353.0945777893066</v>
       </c>
       <c r="I221" t="n">
         <v>-10.67251947172889</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="n">
-        <v>643.7749862670898</v>
+        <v>373.0283975601196</v>
       </c>
       <c r="I222" t="n">
         <v>-8.141834670385995</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="H223" t="n">
-        <v>695.3942179679871</v>
+        <v>430.0767779350281</v>
       </c>
       <c r="I223" t="n">
         <v>-6.626887217316474</v>
@@ -9613,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="H224" t="n">
-        <v>807.7749490737914</v>
+        <v>611.8156909942626</v>
       </c>
       <c r="I224" t="n">
         <v>-4.961365363494156</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H225" t="n">
-        <v>1101.317644119263</v>
+        <v>916.4977073669434</v>
       </c>
       <c r="I225" t="n">
         <v>-3.181320530181872</v>
